--- a/naruto_databooks.xlsx
+++ b/naruto_databooks.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24004"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24102"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3BB46FA-BD36-4FC9-B5ED-393445E4A583}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5245" documentId="8_{D0992BEF-BD47-4C04-B83C-49FF30343965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{743D7975-059F-4836-8828-2368F97B79B7}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vilas" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Personagens!$D$1:$D$51</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7590" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7649" uniqueCount="982">
   <si>
     <t>name</t>
   </si>
@@ -2745,7 +2745,7 @@
     <t>Gama</t>
   </si>
   <si>
-    <t>False</t>
+    <t>https://i.pinimg.com/564x/ee/55/cd/ee55cdfb500abadff2a2fd0b72cdf670.jpg</t>
   </si>
   <si>
     <t>Centopeia Gigante</t>
@@ -2760,91 +2760,223 @@
     <t>Gamabunta</t>
   </si>
   <si>
-    <t>Kyuubi No Youko</t>
-  </si>
-  <si>
-    <t>True</t>
+    <t>https://i.pinimg.com/564x/8f/31/67/8f31675bbce8de09bdcb971ce75b0d2e.jpg</t>
   </si>
   <si>
     <t>Kurama</t>
   </si>
   <si>
+    <t>Kyubi</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/88/29/a7/8829a76f1f246372a32385f61bc62129.jpg</t>
+  </si>
+  <si>
     <t>Serpente Gigante</t>
   </si>
   <si>
-    <t>Ningame - Tartaruga Ninja</t>
+    <t>Ninkame - Tartaruga Ninja</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/08/17/72/0817726846bffe7407ffc0457739103d.jpg</t>
   </si>
   <si>
     <t>Enma - Rei Símio</t>
   </si>
   <si>
+    <t>https://i.pinimg.com/564x/3d/bd/0d/3dbd0dcdfa56d956cb7c6685efc070d3.jpg</t>
+  </si>
+  <si>
     <t>Katsuyu</t>
   </si>
   <si>
+    <t>https://i.pinimg.com/564x/aa/fc/f0/aafcf00f4a3f2d466932b388ae89b4ca.jpg</t>
+  </si>
+  <si>
     <t>Gamakichi</t>
   </si>
   <si>
+    <t>https://i.pinimg.com/564x/22/12/cb/2212cb9effe782725223ddea40ae9363.jpg</t>
+  </si>
+  <si>
     <t>Gamatatsu</t>
   </si>
   <si>
+    <t>https://i.pinimg.com/564x/9c/c2/44/9cc2449161c9c4b43b832e8052e85173.jpg</t>
+  </si>
+  <si>
     <t>Kamatari</t>
   </si>
   <si>
+    <t>https://i.pinimg.com/564x/16/01/f1/1601f18bc094ab9bdb3cdc5fed9058f5.jpg</t>
+  </si>
+  <si>
     <t>Aranha Gigante</t>
   </si>
   <si>
     <t>Shukaku</t>
   </si>
   <si>
+    <t>Ichibi</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/06/2a/9d/062a9d14850f2960d504319026b36858.jpg</t>
+  </si>
+  <si>
     <t>Doki</t>
   </si>
   <si>
+    <t>https://i.pinimg.com/564x/51/8d/e3/518de34e2dd75b364c5491090add06c0.jpg</t>
+  </si>
+  <si>
     <t>Pakkun - Ninken</t>
   </si>
   <si>
+    <t>https://i.pinimg.com/564x/7c/16/32/7c1632455d9ea0dfe41930ac9f6c11ed.jpg</t>
+  </si>
+  <si>
     <t>Manda</t>
   </si>
   <si>
+    <t>https://i.pinimg.com/564x/78/34/6c/78346c1f4b7c331529245e6b8c651d0a.jpg</t>
+  </si>
+  <si>
     <t>Oogama-Sennin</t>
   </si>
   <si>
     <t>Gamaken</t>
   </si>
   <si>
+    <t>https://i.pinimg.com/564x/77/74/a8/7774a821ceb1ab94bf12726b28ccb840.jpg</t>
+  </si>
+  <si>
     <t>Gerotora</t>
   </si>
   <si>
+    <t>https://i.pinimg.com/564x/8f/c5/39/8fc539274c43b842acdbaa4afbc753c8.jpg</t>
+  </si>
+  <si>
     <t>Shima</t>
   </si>
   <si>
+    <t>https://i.pinimg.com/564x/38/6c/b4/386cb4a137e0ed7e2432cf09abe79f3d.jpg</t>
+  </si>
+  <si>
     <t>Shiba - Ninken</t>
   </si>
   <si>
+    <t>https://i.pinimg.com/564x/05/e8/ed/05e8ed788dc69fbef08df5d1dffe653c.jpg</t>
+  </si>
+  <si>
     <t>Bisuki  - Ninken</t>
   </si>
   <si>
     <t>Akino - Ninken</t>
   </si>
   <si>
+    <t>https://i.pinimg.com/564x/29/a6/d8/29a6d86492c3d11092c28e9d3477f648.jpg</t>
+  </si>
+  <si>
     <t>Guruko - Ninken</t>
   </si>
   <si>
+    <t>https://i.pinimg.com/564x/9d/6f/cf/9d6fcf9411f79bc49da45e340188fbe0.jpg</t>
+  </si>
+  <si>
     <t>Uhei - Ninken</t>
   </si>
   <si>
+    <t>https://i.pinimg.com/564x/ec/57/c8/ec57c83fbc7f50168e32c10093f1c773.jpg</t>
+  </si>
+  <si>
     <t>Urushi - Ninken</t>
   </si>
   <si>
+    <t>https://i.pinimg.com/564x/68/e0/5c/68e05cb84dba1e9e5d5df58aef575309.jpg</t>
+  </si>
+  <si>
     <t>Bull - Ninken</t>
   </si>
   <si>
     <t>Denka - Ninneko</t>
   </si>
   <si>
+    <t>https://i.pinimg.com/564x/71/a0/6b/71a06bf5ed657edbd290dec9ed637432.jpg</t>
+  </si>
+  <si>
     <t>Hina - Ninneko</t>
   </si>
   <si>
+    <t>https://i.pinimg.com/564x/16/08/c9/1608c99a2e822d32aeecff5008dd7b4b.jpg</t>
+  </si>
+  <si>
     <t>Fukasaku</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/cb/15/08/cb1508007d4a4cbf8a34de45bfec1825.jpg</t>
+  </si>
+  <si>
+    <t>Matatabi</t>
+  </si>
+  <si>
+    <t>Nibi</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/c4/b8/e1/c4b8e172e4b98d06cf64f115f56b663a.jpg</t>
+  </si>
+  <si>
+    <t>Isobu</t>
+  </si>
+  <si>
+    <t>Sanbi</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/b2/40/ba/b240ba8f9b8b20a8ab8e183837ed98c3.jpg</t>
+  </si>
+  <si>
+    <t>Son Goku</t>
+  </si>
+  <si>
+    <t>Yonbi</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/5e/e7/e5/5ee7e5011107abb022287611194a7c66.jpg</t>
+  </si>
+  <si>
+    <t>Kokuo</t>
+  </si>
+  <si>
+    <t>Gobi</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/b1/1d/37/b11d3739e496089ac90bebd6fe574683.jpg</t>
+  </si>
+  <si>
+    <t>Saiken</t>
+  </si>
+  <si>
+    <t>Rokubi</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/ff/9c/d7/ff9cd77b280f7b6da40b531a59736bf6.jpg</t>
+  </si>
+  <si>
+    <t>Chomei</t>
+  </si>
+  <si>
+    <t>Nanabi</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/e6/8e/68/e68e685660a2857f4af94f21ab6bd522.jpg</t>
+  </si>
+  <si>
+    <t>Gyuki</t>
+  </si>
+  <si>
+    <t>Hachibi</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/564x/7a/35/e0/7a35e0ec50e3faddcacca20afc7afc21.jpg</t>
   </si>
 </sst>
 </file>
@@ -2921,7 +3053,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2974,6 +3106,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -3291,8 +3426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA586D88-EC99-4A9A-B88E-9F9A9E234E9E}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3548,7 +3683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BY142"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -38615,10 +38750,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60AA3F9-07A8-482C-90A5-4B431B3E1202}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38626,9 +38761,10 @@
     <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="72" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -38644,8 +38780,11 @@
       <c r="E1" s="4" t="s">
         <v>902</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>903</v>
       </c>
@@ -38658,13 +38797,16 @@
         <v>Vila Oculta da Folha</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>904</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>905</v>
       </c>
@@ -38677,13 +38819,16 @@
         <v>Vila Oculta da Folha</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>904</v>
+        <v>141</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>906</v>
       </c>
@@ -38696,13 +38841,16 @@
         <v>Vila Oculta da Folha</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>904</v>
+        <v>141</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>907</v>
       </c>
@@ -38715,13 +38863,16 @@
         <v>Vila Oculta da Folha</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>904</v>
+        <v>141</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>908</v>
       </c>
@@ -38734,32 +38885,40 @@
         <v>Vila Oculta da Folha</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>904</v>
+        <v>141</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="F6" s="16" t="s">
+        <v>909</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>909</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>910</v>
+      </c>
+      <c r="B7" s="20" t="str">
+        <f>Vilas!A2</f>
+        <v>Konohagakure no Sato</v>
+      </c>
+      <c r="C7" s="20" t="str">
+        <f>Vilas!B2</f>
+        <v>Vila Oculta da Folha</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>910</v>
+        <v>271</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>911</v>
       </c>
+      <c r="F7" s="16" t="s">
+        <v>912</v>
+      </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B8" s="3" t="str">
         <f>Vilas!A7</f>
@@ -38770,15 +38929,18 @@
         <v>Vila Oculta do Som</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>904</v>
+        <v>141</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" ht="17.25" customHeight="1">
+    <row r="9" spans="1:6" ht="17.25" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B9" s="3" t="str">
         <f>Vilas!A2</f>
@@ -38789,15 +38951,18 @@
         <v>Vila Oculta da Folha</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>904</v>
+        <v>141</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="F9" s="16" t="s">
+        <v>915</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" s="9" customFormat="1">
+    <row r="10" spans="1:6" s="9" customFormat="1">
       <c r="A10" s="4" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B10" s="3" t="str">
         <f>Vilas!A2</f>
@@ -38808,15 +38973,18 @@
         <v>Vila Oculta da Folha</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>904</v>
+        <v>141</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="F10" s="16" t="s">
+        <v>917</v>
+      </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="B11" s="3" t="str">
         <f>Vilas!A2</f>
@@ -38827,15 +38995,18 @@
         <v>Vila Oculta da Folha</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>904</v>
+        <v>141</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="F11" s="16" t="s">
+        <v>919</v>
+      </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="B12" s="3" t="str">
         <f>Vilas!A2</f>
@@ -38846,15 +39017,18 @@
         <v>Vila Oculta da Folha</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>904</v>
+        <v>141</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="F12" s="16" t="s">
+        <v>921</v>
+      </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
       <c r="B13" s="3" t="str">
         <f>Vilas!A2</f>
@@ -38865,15 +39039,18 @@
         <v>Vila Oculta da Folha</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>904</v>
+        <v>141</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="F13" s="16" t="s">
+        <v>923</v>
+      </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="B14" s="3" t="str">
         <f>Vilas!A3</f>
@@ -38884,15 +39061,18 @@
         <v>Vila Oculta da Areia</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>904</v>
+        <v>141</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="F14" s="16" t="s">
+        <v>925</v>
+      </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
-        <v>919</v>
+        <v>926</v>
       </c>
       <c r="B15" s="3" t="str">
         <f>Vilas!A7</f>
@@ -38903,15 +39083,18 @@
         <v>Vila Oculta do Som</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>904</v>
+        <v>141</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="F15" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
-        <v>920</v>
+        <v>927</v>
       </c>
       <c r="B16" s="3" t="str">
         <f>Vilas!A3</f>
@@ -38922,15 +39105,18 @@
         <v>Vila Oculta da Areia</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>910</v>
+        <v>271</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>38</v>
+        <v>928</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>929</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
-        <v>921</v>
+        <v>930</v>
       </c>
       <c r="B17" s="3" t="str">
         <f>Vilas!A7</f>
@@ -38941,15 +39127,18 @@
         <v>Vila Oculta do Som</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>904</v>
+        <v>141</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="F17" s="16" t="s">
+        <v>931</v>
+      </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
-        <v>922</v>
+        <v>932</v>
       </c>
       <c r="B18" s="3" t="str">
         <f>Vilas!A2</f>
@@ -38960,15 +39149,18 @@
         <v>Vila Oculta da Folha</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>904</v>
+        <v>141</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="F18" s="16" t="s">
+        <v>933</v>
+      </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>923</v>
+        <v>934</v>
       </c>
       <c r="B19" s="3" t="str">
         <f>Vilas!A7</f>
@@ -38979,15 +39171,18 @@
         <v>Vila Oculta do Som</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>904</v>
+        <v>141</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="F19" s="16" t="s">
+        <v>935</v>
+      </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" s="4" t="s">
-        <v>924</v>
+        <v>936</v>
       </c>
       <c r="B20" s="3" t="str">
         <f>Vilas!A2</f>
@@ -38998,15 +39193,18 @@
         <v>Vila Oculta da Folha</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>904</v>
+        <v>141</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="F20" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="4" t="s">
-        <v>925</v>
+        <v>937</v>
       </c>
       <c r="B21" s="3" t="str">
         <f>Vilas!A2</f>
@@ -39017,15 +39215,18 @@
         <v>Vila Oculta da Folha</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>904</v>
+        <v>141</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="F21" s="16" t="s">
+        <v>938</v>
+      </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" s="4" t="s">
-        <v>926</v>
+        <v>939</v>
       </c>
       <c r="B22" s="3" t="str">
         <f>Vilas!A2</f>
@@ -39036,15 +39237,18 @@
         <v>Vila Oculta da Folha</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>904</v>
+        <v>141</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="F22" s="16" t="s">
+        <v>940</v>
+      </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" s="4" t="s">
-        <v>927</v>
+        <v>941</v>
       </c>
       <c r="B23" s="3" t="str">
         <f>Vilas!A2</f>
@@ -39055,15 +39259,18 @@
         <v>Vila Oculta da Folha</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>904</v>
+        <v>141</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="F23" s="16" t="s">
+        <v>942</v>
+      </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" s="4" t="s">
-        <v>928</v>
+        <v>943</v>
       </c>
       <c r="B24" s="3" t="str">
         <f>Vilas!A2</f>
@@ -39074,15 +39281,18 @@
         <v>Vila Oculta da Folha</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>904</v>
+        <v>141</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="F24" s="16" t="s">
+        <v>944</v>
+      </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" s="4" t="s">
-        <v>929</v>
+        <v>945</v>
       </c>
       <c r="B25" s="3" t="str">
         <f>Vilas!A2</f>
@@ -39093,15 +39303,18 @@
         <v>Vila Oculta da Folha</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>904</v>
+        <v>141</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="F25" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="4" t="s">
-        <v>930</v>
+        <v>946</v>
       </c>
       <c r="B26" s="3" t="str">
         <f>Vilas!A2</f>
@@ -39112,15 +39325,18 @@
         <v>Vila Oculta da Folha</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>904</v>
+        <v>141</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="F26" s="16" t="s">
+        <v>947</v>
+      </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27" s="4" t="s">
-        <v>931</v>
+        <v>948</v>
       </c>
       <c r="B27" s="3" t="str">
         <f>Vilas!A2</f>
@@ -39131,15 +39347,18 @@
         <v>Vila Oculta da Folha</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>904</v>
+        <v>141</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="F27" s="16" t="s">
+        <v>949</v>
+      </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" s="4" t="s">
-        <v>932</v>
+        <v>950</v>
       </c>
       <c r="B28" s="3" t="str">
         <f>Vilas!A2</f>
@@ -39150,15 +39369,18 @@
         <v>Vila Oculta da Folha</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>904</v>
+        <v>141</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="F28" s="16" t="s">
+        <v>951</v>
+      </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" s="4" t="s">
-        <v>933</v>
+        <v>952</v>
       </c>
       <c r="B29" s="3" t="str">
         <f>Vilas!A2</f>
@@ -39169,15 +39391,18 @@
         <v>Vila Oculta da Folha</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>904</v>
+        <v>141</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="F29" s="16" t="s">
+        <v>953</v>
+      </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30" s="4" t="s">
-        <v>934</v>
+        <v>954</v>
       </c>
       <c r="B30" s="3" t="str">
         <f>Vilas!A2</f>
@@ -39188,15 +39413,18 @@
         <v>Vila Oculta da Folha</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>904</v>
+        <v>141</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="F30" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31" s="4" t="s">
-        <v>935</v>
+        <v>955</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>38</v>
@@ -39205,15 +39433,18 @@
         <v>38</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>904</v>
+        <v>141</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="F31" s="16" t="s">
+        <v>956</v>
+      </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32" s="4" t="s">
-        <v>936</v>
+        <v>957</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>38</v>
@@ -39222,15 +39453,18 @@
         <v>38</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>904</v>
+        <v>141</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="F32" s="16" t="s">
+        <v>958</v>
+      </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="A33" s="4" t="s">
-        <v>937</v>
+        <v>959</v>
       </c>
       <c r="B33" s="3" t="str">
         <f>Vilas!A2</f>
@@ -39241,20 +39475,203 @@
         <v>Vila Oculta da Folha</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>904</v>
+        <v>141</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="F33" s="16" t="s">
+        <v>960</v>
+      </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B34" s="20" t="str">
+        <f>Vilas!A5</f>
+        <v>Kumogakure no Sato</v>
+      </c>
+      <c r="C34" s="20" t="str">
+        <f>Vilas!B5</f>
+        <v>Vila Oculta da Nuvem</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B35" s="20" t="str">
+        <f>Vilas!A4</f>
+        <v>Kirigakure no Sato</v>
+      </c>
+      <c r="C35" s="20" t="str">
+        <f>Vilas!B4</f>
+        <v>Vila Oculta da Nevoa</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="B36" s="20" t="str">
+        <f>Vilas!A6</f>
+        <v>Iwagakure no Sato</v>
+      </c>
+      <c r="C36" s="20" t="str">
+        <f>Vilas!B6</f>
+        <v>Vila Oculta da Pedra</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B37" s="1" t="str">
+        <f>Vilas!A6</f>
+        <v>Iwagakure no Sato</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <f>Vilas!B6</f>
+        <v>Vila Oculta da Pedra</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B38" s="1" t="str">
+        <f>Vilas!A4</f>
+        <v>Kirigakure no Sato</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <f>Vilas!B4</f>
+        <v>Vila Oculta da Nevoa</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="B39" s="1" t="str">
+        <f>Vilas!A10</f>
+        <v>Takigakure no Sato</v>
+      </c>
+      <c r="C39" s="1" t="str">
+        <f>Vilas!B10</f>
+        <v>Vila Oculta da Cachoeira</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="B40" s="20" t="str">
+        <f>Vilas!A5</f>
+        <v>Kumogakure no Sato</v>
+      </c>
+      <c r="C40" s="20" t="str">
+        <f>Vilas!B5</f>
+        <v>Vila Oculta da Nuvem</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>981</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F31" r:id="rId1" xr:uid="{1A16D97B-602F-465D-9544-CB769A9A8327}"/>
+    <hyperlink ref="F32" r:id="rId2" xr:uid="{1823DA10-2029-4ACA-A7F0-C4E860FC1FF1}"/>
+    <hyperlink ref="F11" r:id="rId3" xr:uid="{7ECC0C99-F3CE-499D-AE8F-CC89D35D6BF7}"/>
+    <hyperlink ref="F13" r:id="rId4" xr:uid="{9DAF157B-4656-4A98-BE61-8F5BE076FA70}"/>
+    <hyperlink ref="F12" r:id="rId5" xr:uid="{A0C50AAB-5117-47DF-8292-397DB32E23BF}"/>
+    <hyperlink ref="F21" r:id="rId6" xr:uid="{33DF612A-3EA7-49D3-B9D3-4440C0ECD262}"/>
+    <hyperlink ref="F2" r:id="rId7" xr:uid="{AF03CF5A-F732-46AA-845A-78A71736AA48}"/>
+    <hyperlink ref="F22" r:id="rId8" xr:uid="{65CCDC68-0FF2-4738-83C6-72EAFD47BB56}"/>
+    <hyperlink ref="F19" r:id="rId9" xr:uid="{26FB8BB6-3CA5-4669-9803-2EFEC770EACA}"/>
+    <hyperlink ref="F18" r:id="rId10" xr:uid="{0BC0ECBE-4316-4945-85C9-72691A2ABBB5}"/>
+    <hyperlink ref="F6" r:id="rId11" xr:uid="{FFDE24AE-E5A1-4427-B278-53D4380F1270}"/>
+    <hyperlink ref="F7" r:id="rId12" xr:uid="{3E6E41DD-1A9D-4CD1-BD8D-E4A4518A5DF2}"/>
+    <hyperlink ref="F10" r:id="rId13" xr:uid="{A90D2245-CCAA-4986-8766-A5B26344B3F0}"/>
+    <hyperlink ref="F14" r:id="rId14" xr:uid="{7C068DBA-A211-4D55-8929-192E3FA096B9}"/>
+    <hyperlink ref="F16" r:id="rId15" xr:uid="{1C8DEBB0-F07E-4C6C-8FF3-F81CC2C8535E}"/>
+    <hyperlink ref="F9" r:id="rId16" xr:uid="{C439ABCE-1975-4815-8EDA-9C3715026BD0}"/>
+    <hyperlink ref="F23" r:id="rId17" xr:uid="{49BDD6DD-264F-4D44-94E6-465D18F52CA0}"/>
+    <hyperlink ref="F33" r:id="rId18" xr:uid="{477FEB23-B116-4F46-A86D-CF982EF00390}"/>
+    <hyperlink ref="F17" r:id="rId19" xr:uid="{8C583BC2-4DDE-4357-BB20-910B5F34B1FC}"/>
+    <hyperlink ref="F24" r:id="rId20" xr:uid="{32B9D7C6-EE0A-4393-ADF7-E52D1E9B1734}"/>
+    <hyperlink ref="F26" r:id="rId21" xr:uid="{D9E5906C-DA75-42E7-9306-C19C0FDCDDAB}"/>
+    <hyperlink ref="F27" r:id="rId22" xr:uid="{9E787149-AF4B-474F-9252-ED9312DEB0A6}"/>
+    <hyperlink ref="F28" r:id="rId23" xr:uid="{EAB3B08B-C96F-4333-AD05-4D68090E7F62}"/>
+    <hyperlink ref="F29" r:id="rId24" xr:uid="{E6145B32-BB5A-41E0-826E-CCAD77A25846}"/>
+    <hyperlink ref="F34" r:id="rId25" xr:uid="{B65ADB29-0419-4373-B4D1-10735598BD6F}"/>
+    <hyperlink ref="F35" r:id="rId26" xr:uid="{EEE5411C-8361-4120-A753-00E8258CA918}"/>
+    <hyperlink ref="F36" r:id="rId27" xr:uid="{772DB4E9-F454-435D-AD26-28EA55706E1A}"/>
+    <hyperlink ref="F37" r:id="rId28" xr:uid="{622D1E4F-F292-4B85-92AA-6E6376DD06E8}"/>
+    <hyperlink ref="F38" r:id="rId29" xr:uid="{C57490A3-C815-4A5E-AF7D-BD8CFC19E07D}"/>
+    <hyperlink ref="F39" r:id="rId30" xr:uid="{FB7F92CD-2D6B-48F0-9385-1708341B8D9E}"/>
+    <hyperlink ref="F40" r:id="rId31" xr:uid="{53A1C426-A59C-427C-94E9-3C6692372A0B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>